--- a/biology/Botanique/Paspalum_thunbergii/Paspalum_thunbergii.xlsx
+++ b/biology/Botanique/Paspalum_thunbergii/Paspalum_thunbergii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paspalum thunbergii est une espèce de graminées, pérennes de la famille des Poaceae, sous famille des Panicoideae[1], originaire d'Asie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paspalum thunbergii est une espèce de graminées, pérennes de la famille des Poaceae, sous famille des Panicoideae, originaire d'Asie.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paspalum thunbergii est une plante herbacée vivace par ses rhizomes noueux, cespiteuse, aux tiges pouvant atteindre 40 à 90 cm de long.
 L'inflorescence est composée de 2 à 5 racèmes de 3 à 8 cm de long, étalés de part et d'autre d'un axe central. Ces racèmes sont eux-mêmes composés d'épillets groupés par paires au moins dans la partie centrale du racèmes, le second épillet étant parfois présent sous forme de vestiges.
-Les épillets fertiles, de forme obovale ou orbiculaire, comprimés dorsalement, longs de 2,5 à 2,7 mm, comptent un fleuron basal stérile et un fleuron terminal fertile. la glume supérieure, aussi longue que l'épillet, est membraneuse et présente trois nervures. la glume inférieure est parfois absente[2],[3].
+Les épillets fertiles, de forme obovale ou orbiculaire, comprimés dorsalement, longs de 2,5 à 2,7 mm, comptent un fleuron basal stérile et un fleuron terminal fertile. la glume supérieure, aussi longue que l'épillet, est membraneuse et présente trois nervures. la glume inférieure est parfois absente,.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition de Paspalum thunbergii s'étend en Asie orientale : Chine (Anhui, Fujian, Guangdong, Guangxi, Guizhou, Henan, Hubei, Hunan, Jiangsu, Jiangxi, Shaanxi, Shandong, Sichuan, Yunnan, Zhejiang), ainsi qu'à Taïwan, au Japon, et en Corée, et dans le sous-continent indien : Bhoutan, Inde (Darjeeling, Sikkim).
-L'espèce a également été signalée en Géorgie et en Azerbaïdjan en 1984[4] et plus récemment  (2001) en Turquie[5], puis en 2014 en Lombardie (Italie) où elle est considérée comme naturalisée[4].
-Elle est aussi probablement présente à Hawaï où on l'a confondue avec Paspalum scrobiculatum[4].
-La plante pousse généralement sur des sols humides, dans les champs et les friches[3].
+L'espèce a également été signalée en Géorgie et en Azerbaïdjan en 1984 et plus récemment  (2001) en Turquie, puis en 2014 en Lombardie (Italie) où elle est considérée comme naturalisée.
+Elle est aussi probablement présente à Hawaï où on l'a confondue avec Paspalum scrobiculatum.
+La plante pousse généralement sur des sols humides, dans les champs et les friches.
 </t>
         </is>
       </c>
@@ -578,19 +594,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite par Karl Sigismund Kunth et Ernst Gottlieb von Steudel[6],[7] et publiée en 1853 dans Synopsis Plantarum Glumacearum. Stuttgartiae 1(1): 28[8].
-Synonymes
-Selon Catalogue of Life                                   (22 janvier 2017)[9]:
-Paspalum dissectum Thunb., nom. illeg.
-Paspalum mollipilum Steud.
-Paspalum scrobiculatum var. thunbergii (Kunth ex Steud.) Makino
-Paspalum thunbergii var. minor Makino, nom. nud.
-Liste des variétés
-Selon Tropicos                                           (22 janvier 2017)[10] (Attention liste brute contenant possiblement des synonymes) :
-variété Paspalum thunbergii var. minus Makino
-variété Paspalum thunbergii var. thunbergii</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par Karl Sigismund Kunth et Ernst Gottlieb von Steudel, et publiée en 1853 dans Synopsis Plantarum Glumacearum. Stuttgartiae 1(1): 28.
+</t>
         </is>
       </c>
     </row>
@@ -615,13 +624,93 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (22 janvier 2017):
+Paspalum dissectum Thunb., nom. illeg.
+Paspalum mollipilum Steud.
+Paspalum scrobiculatum var. thunbergii (Kunth ex Steud.) Makino
+Paspalum thunbergii var. minor Makino, nom. nud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Paspalum_thunbergii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paspalum_thunbergii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (22 janvier 2017) (Attention liste brute contenant possiblement des synonymes) :
+variété Paspalum thunbergii var. minus Makino
+variété Paspalum thunbergii var. thunbergii</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Paspalum_thunbergii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paspalum_thunbergii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Importance économique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Paspalum thunbergii est parfois planté pour lutter contre l'érosion des sols et la désertification ou dans des opérations de reboisement.
-C'est également, à l'instar d'autres espèces du genre Paspalum, une mauvaise herbe des cultures, principalement dans les rizières, mais également dans les plantations de canne à sucre[4]. 
+C'est également, à l'instar d'autres espèces du genre Paspalum, une mauvaise herbe des cultures, principalement dans les rizières, mais également dans les plantations de canne à sucre. 
 </t>
         </is>
       </c>
